--- a/inst/apps/MNcalc/external/RMD/files/References.xlsx
+++ b/inst/apps/MNcalc/external/RMD/files/References.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED4C11D-E228-4C2C-ACBC-03EF63B7AC84}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="3" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -154,10 +154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
